--- a/Wcsm8seleniumproject/data/ActiTimeTestData.xlsx
+++ b/Wcsm8seleniumproject/data/ActiTimeTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moula\git\WCSM8\Wcsm8seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780723A7-6665-4835-81CB-5134BCC68E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30BC9AE-A3AF-47E2-B482-ACFA8640860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validCreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidCreds" sheetId="2" r:id="rId2"/>
+    <sheet name="createuser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -56,6 +57,21 @@
   </si>
   <si>
     <t>m a n a g e r</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>man1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Engineer</t>
   </si>
 </sst>
 </file>
@@ -407,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68729492-866A-42EF-9AE2-1D807FD1502F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -487,4 +503,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E0C8B-9090-4D3A-BE28-83DF59121E71}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>